--- a/report/reliability/by-comb/Ensino Superior-Formação continuada - Concluída.xlsx
+++ b/report/reliability/by-comb/Ensino Superior-Formação continuada - Concluída.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8942793531244926</v>
+        <v>0.8783314876338132</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8948472513888814</v>
+        <v>0.8790797668980054</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9426536168590488</v>
+        <v>0.9164918450815797</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.33359401307242253</v>
+        <v>0.3586554130730218</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>8.509974900401813</v>
+        <v>7.269914590360681</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.022094135174304783</v>
+        <v>0.025710282563836874</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.8324808184143224</v>
+        <v>2.7040133779264215</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6497232594929028</v>
+        <v>0.7094677452889252</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3336449904489993</v>
+        <v>0.3631070748518921</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8902142269761523</v>
+        <v>0.8788800245095881</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8907256268626987</v>
+        <v>0.8787501891543295</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9368497558001161</v>
+        <v>0.9116238374945909</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3375091367180497</v>
+        <v>0.3765403203517428</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>8.15127647306215</v>
+        <v>7.247435546706319</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.022942509871777712</v>
+        <v>0.02556597140498291</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.02219123469654707</v>
+        <v>0.01934644397939324</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3402385086263301</v>
+        <v>0.3919528358548853</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8811426332902417</v>
+        <v>0.8731904423028212</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8830263403819518</v>
+        <v>0.8741083931585415</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.93262039823939</v>
+        <v>0.9097065298292897</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3205637012475185</v>
+        <v>0.3665320278142318</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>7.548933180899709</v>
+        <v>6.943341300420046</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.025029647251246845</v>
+        <v>0.026809741176165847</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.021259723851006523</v>
+        <v>0.02094822344608232</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3208291586027511</v>
+        <v>0.37323013331396204</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8913579695050267</v>
+        <v>0.8593093436022258</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8910661207132016</v>
+        <v>0.8618233914007871</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9349702638193402</v>
+        <v>0.8982191304325449</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.33829284370954754</v>
+        <v>0.3420011864756112</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>8.179880552745443</v>
+        <v>6.237114951203811</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.022578992645120668</v>
+        <v>0.029944975179921278</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.020514626632070793</v>
+        <v>0.020362910131125213</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3402385086263301</v>
+        <v>0.33639624262458645</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8872415253790157</v>
+        <v>0.8687220406017307</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8884861616244241</v>
+        <v>0.870461702705177</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9361009166932885</v>
+        <v>0.9071742574923511</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.33242924505640453</v>
+        <v>0.35896493357820636</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>7.967496900537346</v>
+        <v>6.719724752318212</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.023629322861781363</v>
+        <v>0.02783699562093181</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.02272889417341806</v>
+        <v>0.02225785865364669</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.32625733805259727</v>
+        <v>0.35465172133541734</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8884070053528066</v>
+        <v>0.8775503353451806</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8886240641272815</v>
+        <v>0.879255112069265</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.933302498591477</v>
+        <v>0.9135895583255557</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3327383639095431</v>
+        <v>0.3776554702800006</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>7.978600199084382</v>
+        <v>7.281924122316863</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.02332396258080182</v>
+        <v>0.02611150732654284</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.021351628122876467</v>
+        <v>0.019458795236064</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3336449904489993</v>
+        <v>0.3955432670712049</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8864354557092907</v>
+        <v>0.8681504199184178</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8864109272830036</v>
+        <v>0.8679373631059014</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9344037516314774</v>
+        <v>0.9081991188291573</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3278345644966617</v>
+        <v>0.3538717550578285</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>7.803663733495466</v>
+        <v>6.572164417721749</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02367835298325842</v>
+        <v>0.027815233889720275</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.022122740848560817</v>
+        <v>0.021969377162701507</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.32625733805259727</v>
+        <v>0.3493281300903301</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.882230838886438</v>
+        <v>0.873369394521026</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8832415215012761</v>
+        <v>0.8735945994935981</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9329633493681837</v>
+        <v>0.9015983676172333</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.32101797191978076</v>
+        <v>0.3654505060650203</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>7.564688516482588</v>
+        <v>6.911054401108076</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.024720242598825683</v>
+        <v>0.026664280237042693</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.021426388462628843</v>
+        <v>0.019834103923100296</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3208291586027511</v>
+        <v>0.3712334251950853</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8828694730857689</v>
+        <v>0.8689142257468416</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.884049493858617</v>
+        <v>0.8682879239205669</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9359671481293694</v>
+        <v>0.9022407186927823</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3227332458259911</v>
+        <v>0.35457214998351766</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>7.624369425180952</v>
+        <v>6.592318257871201</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.024944474624540584</v>
+        <v>0.0277034330450787</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.022270792347548758</v>
+        <v>0.02108820697841703</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3208291586027511</v>
+        <v>0.35465172133541734</v>
       </c>
     </row>
     <row r="19">
@@ -2781,25 +2769,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8912170858116805</v>
+        <v>0.8605448605448605</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8917649054156688</v>
+        <v>0.8614731751057632</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9341725362717097</v>
+        <v>0.901321796491867</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.33991077773688655</v>
+        <v>0.3413403822031299</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>8.239147467283377</v>
+        <v>6.218818454573584</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.022683249007990732</v>
+        <v>0.029609374167102936</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.02071953580191711</v>
+        <v>0.020523771820841637</v>
       </c>
       <c r="I19" t="n" s="65">
         <v>0.33639624262458645</v>
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8931880231954692</v>
+        <v>0.8609642829673754</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8943327745569994</v>
+        <v>0.8624981045463527</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.941089915911254</v>
+        <v>0.9039515773819216</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3459690037785787</v>
+        <v>0.3432799789700232</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>8.463672352591715</v>
+        <v>6.272627018709766</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.022416125767127915</v>
+        <v>0.030049951450262836</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.02089812005700145</v>
+        <v>0.0216244972272134</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3551337436483458</v>
+        <v>0.3402385086263301</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8844317662825782</v>
+        <v>0.8675901322194319</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8841660528351438</v>
+        <v>0.8680797382814386</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9356719749687732</v>
+        <v>0.908402196379191</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3229819466621521</v>
+        <v>0.3541559445071686</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>7.633047776372403</v>
+        <v>6.580336689548109</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.024112394660768824</v>
+        <v>0.02803575402320231</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.022018816862060916</v>
+        <v>0.023264764555089648</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.32409835139049337</v>
+        <v>0.3402385086263301</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8888570642658481</v>
+        <v>0.8712839152027454</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8896612780138407</v>
+        <v>0.872365777118065</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9339683097070792</v>
+        <v>0.907787429576239</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.3350787923407239</v>
+        <v>0.36288449352350977</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>8.063001474001473</v>
+        <v>6.834889243812188</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.023219094041001732</v>
+        <v>0.027238388602492475</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.02062589521377609</v>
+        <v>0.02108634142468411</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3336449904489993</v>
+        <v>0.3631070748518921</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.889348144911269</v>
+        <v>0.8724768168918546</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8886686890287759</v>
+        <v>0.8735091920101448</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9350813149023202</v>
+        <v>0.9071024533364894</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3328384965648822</v>
+        <v>0.3652712211392926</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>7.982199089153557</v>
+        <v>6.905712801519948</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.023166631112438156</v>
+        <v>0.027071282112234297</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.022029873648636063</v>
+        <v>0.020526749224026683</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3309642839399027</v>
+        <v>0.37323013331396204</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.8902135148904636</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.8908924655641922</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9392249147322048</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3378927662028596</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>8.165269888747593</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.022924807376865534</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.02294221953129605</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.3336449904489993</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8931152010906612</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.894156497662208</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9408534316857633</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.3455473582890053</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>8.4479110943303</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.02245382260276352</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.02153157959380794</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3551337436483458</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.8902601004943604</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8910779645922913</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9382818758558426</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.33832015919978364</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>8.180878747416674</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.02297742245244887</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.0214484700333127</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.3402385086263301</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.890633287366076</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.8915620858667825</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9396110549687703</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3394398485728145</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>8.221866798096892</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.022870488410483156</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.021360599201573887</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.33847250608641066</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>46.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.5128413067151143</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.4965854543106992</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.4520275051794024</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.40270697152676477</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.9565217391304346</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.246444217927861</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>46.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.5985908702774014</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.5761346918789857</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.5402543405622324</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.5004190741707405</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.760869565217391</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.250507143499</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>46.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.789008962131867</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.7711139771149038</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.7697910798032916</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.7313470280576115</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.260869565217391</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.2006439496036312</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>46.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.6535231800083849</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6362804734723059</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6048485628428953</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.5719035263148926</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.160542934742891</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5883258793758248</v>
+        <v>0.45936852380406507</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5653059072082288</v>
+        <v>0.4877218718130099</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5440202839013271</v>
+        <v>0.4347863411680635</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5065831728657822</v>
+        <v>0.38081304403605704</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.760869565217391</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.250507143499</v>
+        <v>0.8628119403696524</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.7794912873535537</v>
+        <v>0.6579230816499485</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.7612131033444562</v>
+        <v>0.6767627502019983</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.7594836905835878</v>
+        <v>0.6469825472102895</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.7308688682135199</v>
+        <v>0.5904297935427119</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.260869565217391</v>
+        <v>2.217391304347826</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2006439496036312</v>
+        <v>0.9868703275903379</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5622069355260478</v>
+        <v>0.5633571890176101</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5562454236600959</v>
+        <v>0.5847309864258163</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5457790456433471</v>
+        <v>0.5666787027418626</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.4774344458651552</v>
+        <v>0.4805848518158859</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.9565217391304346</v>
+        <v>2.9347826086956523</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.246444217927861</v>
+        <v>1.0198512726655236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6445223900421961</v>
+        <v>0.6472927015044477</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.624034839482609</v>
+        <v>0.6711957784007196</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6044871735347487</v>
+        <v>0.6561617637574172</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5765004269791881</v>
+        <v>0.5845413059408933</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.1739130434782608</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.160542934742891</v>
+        <v>0.9051649968362588</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6071858231868879</v>
+        <v>0.7740037842306438</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.620461097875524</v>
+        <v>0.7763662692377338</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6116341848504282</v>
+        <v>0.7680692075307508</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5514461737775619</v>
+        <v>0.7158190094768421</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.260869565217391</v>
+        <v>2.6956521739130435</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.9051649968362588</v>
+        <v>1.1521875853714352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6615088593402303</v>
+        <v>0.777711071334457</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6771542170970831</v>
+        <v>0.7609497090784474</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6675353735729144</v>
+        <v>0.7426972998005807</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6065665764733692</v>
+        <v>0.7017813366706364</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.217391304347826</v>
+        <v>2.3260869565217392</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9868703275903379</v>
+        <v>1.4614201285977046</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.7580663030907285</v>
+        <v>0.6688374734642885</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.7559612528479265</v>
+        <v>0.6745039179451247</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.7511196719376588</v>
+        <v>0.6383321517181412</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.7079585391591853</v>
+        <v>0.6041036180398051</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.6956521739130435</v>
+        <v>3.347826086956522</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1521875853714352</v>
+        <v>0.9710793835120409</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.7567885324395237</v>
+        <v>0.6106726066035025</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.7361308683083452</v>
+        <v>0.6051265074902504</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.7206139637307312</v>
+        <v>0.5716154709949482</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6907818734537455</v>
+        <v>0.5247203309585603</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.3260869565217392</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.4614201285977046</v>
+        <v>1.130388330520878</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>46.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.5295991351570467</v>
+        <v>0.5760021244248615</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.537540391300166</v>
+        <v>0.5861560026406869</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5251532555282323</v>
+        <v>0.5571158025691356</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.4581961618720276</v>
+        <v>0.4996169439233651</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.9347826086956523</v>
+        <v>3.217391304347826</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>1.0198512726655236</v>
+        <v>0.9640895181640636</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4488742966963936</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.467500876561736</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.42874315971780574</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.38322982107691045</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.5</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>0.8628119403696524</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.7180263623043749</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.7332556230203876</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.7218521758652148</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6711357144077628</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>3.347826086956522</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>0.9710793835120409</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.5928530452800643</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.5934032643658739</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.5857166226287935</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.53378017620521</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>3.130434782608696</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.9335403497123532</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.5878641096567171</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6193034582395714</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.6049456454792325</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.5403617920327164</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.9130434782608696</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.7550154363844119</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5527046385528466</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5608707437180377</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.5302756298027196</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.48829841605620666</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.9782608695652173</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.9542683162107352</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.45652173913043476</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.460781405077078</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.4723755453638139</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.4325549588973404</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.39054919555397166</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.9782608695652173</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>0.9306898381733987</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.5519284357224358</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.5559296276386507</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5303761299391577</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.48673946733971163</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>3.217391304347826</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9640895181640636</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.41304347826086957</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>46.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5597616419016098</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5429848316199548</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5133680630793954</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.4832654445590779</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.5</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.130388330520878</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.45652173913043476</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.45652173913043476</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2391304347826087</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.15217391304347827</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2608695652173913</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.30434782608695654</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.043478260869565216</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.41304347826086957</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="C54" t="n" s="110">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="F54" t="n" s="113">
         <v>0.10869565217391304</v>
-      </c>
-      <c r="D54" t="n" s="111">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="E54" t="n" s="112">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="F54" t="n" s="113">
-        <v>0.0</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
         <v>0.043478260869565216</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.45652173913043476</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.1956521739130435</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.10869565217391304</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.1956521739130435</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.3695652173913043</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="C56" t="n" s="110">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="D56" t="n" s="111">
         <v>0.2826086956521739</v>
-      </c>
-      <c r="D56" t="n" s="111">
-        <v>0.17391304347826086</v>
       </c>
       <c r="E56" t="n" s="112">
         <v>0.15217391304347827</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.021739130434782608</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="C57" t="n" s="110">
         <v>0.17391304347826086</v>
       </c>
-      <c r="C57" t="n" s="110">
-        <v>0.5</v>
-      </c>
       <c r="D57" t="n" s="111">
-        <v>0.2391304347826087</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="E57" t="n" s="112">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="F57" t="n" s="113">
         <v>0.06521739130434782</v>
       </c>
-      <c r="F57" t="n" s="113">
-        <v>0.021739130434782608</v>
-      </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.45652173913043476</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.45652173913043476</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.45652173913043476</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.6304347826086957</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.41304347826086957</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7224913494809688</v>
+        <v>0.7714701601164485</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7232562976844688</v>
+        <v>0.771457446356121</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6442367403825406</v>
+        <v>0.6968782863036609</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.4655694636006622</v>
+        <v>0.5294525642308736</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>2.6134516942316646</v>
+        <v>3.375552753988329</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.07110225025582505</v>
+        <v>0.05828532733344268</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.0064678502563539995</v>
+        <v>0.0034234237092862427</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.49776796628687753</v>
+        <v>0.5249042402219177</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.6302315366756605</v>
+        <v>0.7224913494809688</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.6336801698827436</v>
+        <v>0.7232562976844688</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.5515895286652289</v>
+        <v>0.6442367403825408</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.365731077514972</v>
+        <v>0.4655694636006622</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>1.7298549458267294</v>
+        <v>2.6134516942316646</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.09533734174039848</v>
+        <v>0.07110225025582505</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.012544467350752828</v>
+        <v>0.0064678502563539995</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.37403618429319124</v>
+        <v>0.49776796628687753</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.7714701601164485</v>
+        <v>0.6302315366756605</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.771457446356121</v>
+        <v>0.6336801698827436</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.6968782863036609</v>
+        <v>0.5515895286652289</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.5294525642308736</v>
+        <v>0.365731077514972</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>3.375552753988329</v>
+        <v>1.7298549458267294</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.05828532733344268</v>
+        <v>0.09533734174039848</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.0034234237092862427</v>
+        <v>0.012544467350752831</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.5249042402219177</v>
+        <v>0.37403618429319124</v>
       </c>
     </row>
     <row r="14">
@@ -4200,7 +3876,7 @@
         <v>0.07705184431205415</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.03096865422996296</v>
+        <v>0.030968654229962964</v>
       </c>
       <c r="I14" t="n" s="179">
         <v>0.49776796628687753</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>46.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.7572573539859089</v>
+        <v>0.6957126607735693</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.7537036271187331</v>
+        <v>0.6912607078841163</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.6475357897842452</v>
+        <v>0.5297183241621057</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.5421806611159902</v>
+        <v>0.4490149676094891</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.760869565217391</v>
+        <v>2.9565217391304346</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.250507143499</v>
+        <v>1.246444217927861</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>46.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8508391924301968</v>
+        <v>0.7572573539859089</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8512912554173344</v>
+        <v>0.7537036271187331</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.8065908004230337</v>
+        <v>0.647535789784245</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7090978415379581</v>
+        <v>0.5421806611159902</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.260869565217391</v>
+        <v>2.760869565217391</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.2006439496036312</v>
+        <v>1.250507143499</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>46.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.6957126607735693</v>
+        <v>0.8508391924301968</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.6912607078841163</v>
+        <v>0.8512912554173344</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.5297183241621057</v>
+        <v>0.8065908004230334</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.4490149676094891</v>
+        <v>0.7090978415379581</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.9565217391304346</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.246444217927861</v>
+        <v>1.2006439496036312</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7729363089935973</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.6491866079258193</v>
+        <v>0.6491866079258192</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.5757439214785942</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.2391304347826087</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.15217391304347827</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.2608695652173913</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.30434782608695654</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.043478260869565216</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.41304347826086957</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.10869565217391304</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.2826086956521739</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.1956521739130435</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.0</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.043478260869565216</v>
+        <v>0.41304347826086957</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.45652173913043476</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="D29" t="n" s="225">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="E29" t="n" s="226">
         <v>0.1956521739130435</v>
       </c>
-      <c r="E29" t="n" s="226">
-        <v>0.10869565217391304</v>
-      </c>
       <c r="F29" t="n" s="227">
-        <v>0.1956521739130435</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.8386042155224394</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8379646556616686</v>
+        <v>0.8379646556616687</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.46409186356987464</v>
@@ -4568,7 +4244,7 @@
         <v>5.195948693684954</v>
       </c>
       <c r="F6" t="n" s="264">
-        <v>0.037426483868929626</v>
+        <v>0.037426483868929605</v>
       </c>
       <c r="G6" t="n" s="265">
         <v>2.6557971014492754</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7955539872971065</v>
+        <v>0.8269939765292346</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.8050930267171125</v>
+        <v>0.8388432953873104</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7947143762253108</v>
+        <v>0.8217879226509232</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.45239402564117936</v>
+        <v>0.5100508431313935</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>4.13065275786004</v>
+        <v>5.205140533267392</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.046055797740289374</v>
+        <v>0.039318480474984936</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.011878761996722859</v>
+        <v>0.006284123077008744</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.4437973138727972</v>
+        <v>0.5100755277854372</v>
       </c>
     </row>
     <row r="12">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7911195952447467</v>
+        <v>0.7999275362318841</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.8067390312172686</v>
+        <v>0.8058779525278978</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.790800842554321</v>
+        <v>0.7880508548898095</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.4550022943779085</v>
+        <v>0.4536354123347815</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>4.1743505494077535</v>
+        <v>4.151398375517922</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.04729248093207709</v>
+        <v>0.04323683155605082</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.010567835566539015</v>
+        <v>0.015658573210944608</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.49446222932464373</v>
+        <v>0.4792644429049337</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.8112989077837687</v>
+        <v>0.7955539872971065</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.8131252302169947</v>
+        <v>0.8050930267171125</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.8033808131647994</v>
+        <v>0.7947143762253109</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.465307959201256</v>
+        <v>0.45239402564117936</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>4.35117716083973</v>
+        <v>4.13065275786004</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.04369629673188144</v>
+        <v>0.04605579774028939</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.013907406852254566</v>
+        <v>0.01187876199672286</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.4850935167815207</v>
+        <v>0.4437973138727972</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7999275362318841</v>
+        <v>0.7911195952447467</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.8058779525278978</v>
+        <v>0.8067390312172686</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7880508548898094</v>
+        <v>0.790800842554321</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.4536354123347815</v>
+        <v>0.4550022943779085</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>4.151398375517922</v>
+        <v>4.1743505494077535</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.04323683155605082</v>
+        <v>0.04729248093207709</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.015658573210944608</v>
+        <v>0.010567835566539013</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.4792644429049337</v>
+        <v>0.49446222932464373</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.8269939765292346</v>
+        <v>0.8112989077837687</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8388432953873104</v>
+        <v>0.8131252302169947</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.8217879226509232</v>
+        <v>0.8033808131647993</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.5100508431313935</v>
+        <v>0.465307959201256</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>5.205140533267392</v>
+        <v>4.35117716083973</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.039318480474984936</v>
+        <v>0.04369629673188144</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.006284123077008744</v>
+        <v>0.013907406852254568</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.5100755277854372</v>
+        <v>0.4850935167815207</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>46.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7587923171605558</v>
+        <v>0.6059875803678976</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7701230610879393</v>
+        <v>0.6409488077912363</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7187089875327694</v>
+        <v>0.5394628335635085</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.6582223138316616</v>
+        <v>0.4716968918883228</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.260869565217391</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.9051649968362588</v>
+        <v>0.8628119403696524</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7796075172758647</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.7206590709266736</v>
+        <v>0.7206590709266735</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.6629974653789882</v>
@@ -4895,22 +4571,22 @@
         <v>46.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7828895679109381</v>
+        <v>0.7419190190840373</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.7642794994567182</v>
+        <v>0.7673418600751407</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.7164587586750344</v>
+        <v>0.7169337656989627</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.6568066818977377</v>
+        <v>0.6191334359310974</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.6956521739130435</v>
+        <v>2.9347826086956523</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1521875853714352</v>
+        <v>1.0198512726655236</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>46.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7886165241936133</v>
+        <v>0.7587923171605558</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7411907023945505</v>
+        <v>0.7701230610879393</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6736749295633824</v>
+        <v>0.7187089875327695</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.6177021253545321</v>
+        <v>0.6582223138316616</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.3260869565217392</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.4614201285977046</v>
+        <v>0.9051649968362588</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>46.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.7419190190840373</v>
+        <v>0.7828895679109381</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7673418600751407</v>
+        <v>0.7642794994567182</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.7169337656989628</v>
+        <v>0.7164587586750345</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.6191334359310974</v>
+        <v>0.6568066818977377</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.9347826086956523</v>
+        <v>2.6956521739130435</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>1.0198512726655236</v>
+        <v>1.1521875853714352</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>46.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.6059875803678976</v>
+        <v>0.7886165241936133</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.6409488077912363</v>
+        <v>0.7411907023945505</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.5394628335635084</v>
+        <v>0.6736749295633823</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.4716968918883228</v>
+        <v>0.6177021253545321</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.5</v>
+        <v>2.3260869565217392</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>0.8628119403696524</v>
+        <v>1.4614201285977046</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.17391304347826086</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.5</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.2391304347826087</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.06521739130434782</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.021739130434782608</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,16 +4754,16 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.10869565217391304</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="C33" t="n" s="338">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="D33" t="n" s="339">
         <v>0.43478260869565216</v>
       </c>
-      <c r="D33" t="n" s="339">
-        <v>0.1956521739130435</v>
-      </c>
       <c r="E33" t="n" s="340">
-        <v>0.17391304347826086</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="F33" t="n" s="341">
         <v>0.08695652173913043</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.45652173913043476</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.13043478260869565</v>
+        <v>0.5</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.15217391304347827</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.15217391304347827</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.10869565217391304</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,16 +4800,16 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.06521739130434782</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.2608695652173913</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.43478260869565216</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.15217391304347827</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="F35" t="n" s="341">
         <v>0.08695652173913043</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.021739130434782608</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.08695652173913043</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.34782608695652173</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.45652173913043476</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.08695652173913043</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.7522521308795661</v>
+        <v>0.6453473132372214</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.7617431791362554</v>
+        <v>0.6480803157724919</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.7814962559715674</v>
+        <v>0.5595960930155734</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.3135337920183607</v>
+        <v>0.38036467977620986</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>3.197151613014616</v>
+        <v>1.841557448527155</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.05625259986735506</v>
+        <v>0.09001705404165866</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>3.152173913043478</v>
+        <v>3.0217391304347827</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.6048947539970829</v>
+        <v>0.7837931634221972</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.3036661238170935</v>
+        <v>0.36843066609697933</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.6666508369939452</v>
+        <v>0.6330590875093494</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.6784113400548791</v>
+        <v>0.6385270627313528</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.6882724874253678</v>
+        <v>0.46899724941455667</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.26013270308685715</v>
+        <v>0.46899724941455667</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>2.109562383731597</v>
+        <v>1.7664588324541668</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.07709136117421317</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.016038469045303275</v>
-      </c>
+        <v>0.10647606210892109</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.27490787182977433</v>
+        <v>0.46899724941455667</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7309079666082654</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7408238663403504</v>
+        <v>0.5384718060255296</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7551191879376677</v>
+        <v>0.3684306660969795</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.32267524900998606</v>
+        <v>0.3684306660969794</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>2.858379959140841</v>
+        <v>1.1667148682477133</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.06188367723187051</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.025637909601127697</v>
-      </c>
+        <v>0.13609615821488358</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3036661238170935</v>
+        <v>0.36843066609697933</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7060663214567401</v>
+        <v>0.46177011878869</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7091302700351525</v>
+        <v>0.4658648687256959</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7190074449207836</v>
+        <v>0.30366612381709346</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.2889280909971513</v>
+        <v>0.30366612381709346</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>2.437965167846284</v>
+        <v>0.8721854104864181</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.06758037789099916</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.018643247618432692</v>
-      </c>
+        <v>0.15672072033896944</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.29971313526036086</v>
+        <v>0.3036661238170935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.7420967306133477</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.7533807658919974</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.7635237385280857</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.33737049744248726</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>3.054833774895545</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.05946158587817317</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.024484987052181443</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.33183826714284226</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.72356385945343</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.7349152931630977</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7544874618182766</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.3160350286128933</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>2.7723790705710765</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.06389417978553154</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.026986954749462513</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.33183826714284226</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.7262194480485323</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7410292250129213</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.743568501808765</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.3229091111667331</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>2.861439577689392</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.06295416570796018</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.024805663074895127</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.3036661238170935</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.7546696717847584</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.7609910263157077</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7623256329232561</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.346685863812417</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.1839433247427062</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.05606358970990386</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.022209499233268783</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.3524840036898868</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>46.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.7100258280361229</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.7275359912410239</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.48264386800669984</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.38866595038226504</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>0.9710793835120409</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>46.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7984366550829135</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7712929132810671</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.5888774038030502</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.466688213249621</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.5</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.130388330520878</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>46.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7876286952894526</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7994722242809341</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.6477494489873094</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.5225400178653854</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>3.217391304347826</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9640895181640636</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>46.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.8104388517442842</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.8199241801934465</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.8244928539748113</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.7042391710625368</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>3.347826086956522</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>0.9710793835120409</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>46.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.5993343427061953</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.6110278143292435</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.5146678230288412</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.42778916851880017</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>3.130434782608696</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.9335403497123532</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>46.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.6899726447920865</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7237456220723268</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.694292534771225</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.5772244833241695</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.9130434782608696</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.7550154363844119</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>46.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.5613282357671258</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.5619446830350009</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.4492869553632093</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.37613704348424565</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.9782608695652173</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.9542683162107352</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>46.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.6263004548276995</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.6332066030084723</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.5400879900616481</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.4623535973229225</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.9782608695652173</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>0.9306898381733987</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>46.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6224725141172905</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6102466987872303</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5273253354806452</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.4503722157689071</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>3.217391304347826</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9640895181640636</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>46.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.5733884232731173</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.5308307244864683</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.4199276329747979</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.350316300037325</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.5</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.130388330520878</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
+      <c r="B27" t="n" s="451">
         <v>0.043478260869565216</v>
       </c>
-      <c r="C33" t="n" s="452">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="D33" t="n" s="453">
+      <c r="C27" t="n" s="452">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="E27" t="n" s="454">
         <v>0.34782608695652173</v>
       </c>
-      <c r="E33" t="n" s="454">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="F34" t="n" s="455">
+      <c r="F27" t="n" s="455">
         <v>0.06521739130434782</v>
       </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.6304347826086957</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.41304347826086957</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
